--- a/DB設計書_エンティティ一覧E-R図.xlsx
+++ b/DB設計書_エンティティ一覧E-R図.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-mura\Desktop\PHP課題関連\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kqh02\Desktop\2023\PHP開発\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C919EE5B-7D25-4BA2-AEAD-AC38F44DD38E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC8185A-D983-4B81-8DED-563C94DAB251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="エンティティ一覧E-R図" sheetId="11" r:id="rId1"/>
@@ -28,21 +28,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>v1.0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>20xx/xx/xx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>xx</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -181,20 +173,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>○○システム</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>○○システム　データモデル設計書</t>
-    <rPh sb="13" eb="15">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>○○システムにおけるデータモデルを示す</t>
     <rPh sb="17" eb="18">
       <t>シメ</t>
@@ -203,6 +181,79 @@
   </si>
   <si>
     <t>データベース設計書</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リスト情報</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>楽曲情報</t>
+    <rPh sb="0" eb="4">
+      <t>ガッキョクジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>music</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マスター</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>楽曲の詳細情報</t>
+    <rPh sb="0" eb="2">
+      <t>ガッキョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイリストに関する情報</t>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイリストシステム</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>プレイリストシステム　データモデル設計書</t>
+    <rPh sb="17" eb="19">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>羽田野佳帆</t>
+    <rPh sb="0" eb="3">
+      <t>ハタノ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カホ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -485,7 +536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,25 +608,28 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -596,6 +650,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>607785</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>617925</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1B38E5C-B418-E2CF-A8CD-CE5BD2E3D571}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="961571" y="6531427"/>
+          <a:ext cx="5489283" cy="1959429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -890,70 +993,70 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="15" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="F3" s="32">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="15" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="17" t="s">
@@ -963,35 +1066,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
@@ -999,9 +1102,9 @@
       <c r="E7" s="12"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1009,91 +1112,111 @@
       <c r="E8" s="13"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="D9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="E9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="29"/>
-    </row>
-    <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
-    </row>
-    <row r="11" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-    </row>
-    <row r="12" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>2</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-    </row>
-    <row r="13" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-    </row>
-    <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-    </row>
-    <row r="18" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1101,207 +1224,207 @@
       <c r="E18" s="7"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -1311,6 +1434,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -1321,15 +1449,11 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1339,6 +1463,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004D00DD3233849449AB108D72C0F0A5CE" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c64c542c36126a2e8443090a5c7363ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d0294a32-bd37-413b-82ae-6cccb3957cb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="92b510d9e603c5944866c58cfe4810e4" ns2:_="">
     <xsd:import namespace="d0294a32-bd37-413b-82ae-6cccb3957cb0"/>
@@ -1482,15 +1615,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1500,10 +1624,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C0A1425-A4BA-4A91-93AC-410A7D7E1DC4}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1511,19 +1631,36 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C0A1425-A4BA-4A91-93AC-410A7D7E1DC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d0294a32-bd37-413b-82ae-6cccb3957cb0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{015ABCEC-86AC-4514-ADE2-324BCB123D68}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="55e2cd83-7313-4acd-ade5-cdd81ca5c9a9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c5e1bdb0-3d36-4ff2-a407-21c68f2b5ae7"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="d0294a32-bd37-413b-82ae-6cccb3957cb0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>